--- a/HW04/Q2/Q2_A.xlsx
+++ b/HW04/Q2/Q2_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My files\Study\ME 635\HW04\Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63630A1D-397C-491C-B772-1A73E0CC0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB9AA2-99C4-4FA9-9795-15D91C2B68FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F85734E-088E-4C4D-8E97-BDF0C9C011BB}"/>
+    <workbookView xWindow="30690" yWindow="4305" windowWidth="17250" windowHeight="8865" xr2:uid="{9F85734E-088E-4C4D-8E97-BDF0C9C011BB}"/>
   </bookViews>
   <sheets>
     <sheet name="HW4_Problem2" sheetId="2" r:id="rId1"/>
@@ -243,17 +243,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4996,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF76725-6CBE-467A-AB96-EE93A1E532BC}">
   <dimension ref="A4:P211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5104,10 +5103,10 @@
         <f>(E7-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.8973244136564933E-5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5132,10 +5131,10 @@
         <f>(E8-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>1.7428348224267604E-5</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>0.9982195663845792</v>
       </c>
     </row>
@@ -5162,10 +5161,10 @@
         <f>(E9-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>9.2560102835395881E-6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>0.99644230271301726</v>
       </c>
     </row>
@@ -5192,10 +5191,10 @@
         <f>(E10-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>3.9400141907391476E-6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>0.99633227083816212</v>
       </c>
     </row>
@@ -5222,10 +5221,10 @@
         <f>(E11-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>1.0036007126376649E-6</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>6.1445449209579436E-3</v>
       </c>
     </row>
@@ -5252,10 +5251,10 @@
         <f>(E12-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>8.5117222665606823E-9</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>101</v>
       </c>
     </row>
@@ -5333,20 +5332,20 @@
         <f>(E15-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>4.8461173292586472E-6</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5373,22 +5372,22 @@
         <f>(E16-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>7.9703965249314741E-6</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>1.0257330415260795</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>0.34191101384202649</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>9055.9422351468493</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>1.3477174620520763E-118</v>
       </c>
     </row>
@@ -5415,20 +5414,18 @@
         <f>(E17-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>1.138887294285356E-5</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>97</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>3.6622769317099964E-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>3.7755432285670063E-5</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -5453,18 +5450,18 @@
         <f>(E18-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>1.4874324982168326E-5</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>1.0293953184577895</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -5513,29 +5510,29 @@
         <f>(E20-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.1295627027615561E-5</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5562,31 +5559,31 @@
         <f>(E21-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.3932667904986757E-5</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>0.25802799591982245</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>2.3575551856760157E-3</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>109.44727719950885</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>1.9716108812724231E-103</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21">
         <v>0.25334890148050376</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>0.26270709035914114</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21">
         <v>0.25334890148050376</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21">
         <v>0.26270709035914114</v>
       </c>
     </row>
@@ -5613,31 +5610,31 @@
         <f>(E22-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.6037163627656263E-5</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>-8.9978217384308612E-2</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>2.0518904797096463E-2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
         <v>-4.3851374268787007</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>2.9432659052237689E-5</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22">
         <v>-0.13070256348671952</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>-4.9253871281897704E-2</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>-0.13070256348671952</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22">
         <v>-4.9253871281897704E-2</v>
       </c>
     </row>
@@ -5664,31 +5661,31 @@
         <f>(E23-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.7531991608505422E-5</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>0.51279348293743943</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>4.7815237533390592E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <v>10.724478417143546</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>3.68401336275093E-18</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23">
         <v>0.41789347236015306</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>0.60769349351472579</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>0.41789347236015306</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23">
         <v>0.60769349351472579</v>
       </c>
     </row>
@@ -5715,31 +5712,31 @@
         <f>(E24-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.8367224087522435E-5</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>-0.10011887384306443</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>3.1422595102189185E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>-3.186206407124192</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>1.9396146675929654E-3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>-0.16248402690710875</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>-3.775372077902011E-2</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>-0.16248402690710875</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="2">
         <v>-3.775372077902011E-2</v>
       </c>
     </row>
@@ -5876,10 +5873,10 @@
         <f>(E29-HW4_Problem2[[#This Row],[Y]])^2</f>
         <v>2.2696400574595732E-5</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f>SQRT(I28/I27)</f>
         <v>6.0216416067956965E-3</v>
       </c>
@@ -7715,1124 +7712,1124 @@
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111">
         <v>1</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>0.25802799591982245</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>-8.0279959198224504E-3</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112">
         <v>2</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>0.25717939297539927</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>-6.6668849753992454E-3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113">
         <v>3</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>0.25643274801432048</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>-5.3826800143204623E-3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114">
         <v>4</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>0.2557874603233431</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>-4.1747273233431192E-3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115">
         <v>5</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>0.25524292918922403</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>-3.0423691892240146E-3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116">
         <v>6</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>0.25479855389872025</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>-1.9849468987202523E-3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117">
         <v>7</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>0.25445373373858859</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>-1.0017987385885774E-3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118">
         <v>8</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>0.25420786799558615</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>-9.225899558612527E-5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119">
         <v>9</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>0.2540603559564697</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>7.4433904353032876E-4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120">
         <v>10</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>0.25401059690799632</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>1.5086640920036753E-3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121">
         <v>11</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>0.25405799013692287</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>2.2013898630771078E-3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122">
         <v>12</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>0.25420193493000637</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>2.8231890699936257E-3</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123">
         <v>13</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>0.25444183057400371</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>3.374740425996281E-3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124">
         <v>14</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>0.25477707635567182</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>3.85672464432818E-3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125">
         <v>15</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>0.2552070715617677</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>4.2698214382322908E-3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126">
         <v>16</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>0.2557312154790482</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>4.6147185209517994E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127">
         <v>17</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>0.25634890739427035</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>4.8921026057296424E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128">
         <v>18</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>0.257059546594191</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>5.1026624058089776E-3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129">
         <v>19</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>0.25786253236556717</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>5.2470936344328201E-3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130">
         <v>20</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>0.25875726399515581</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>5.3260890048442144E-3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131">
         <v>21</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>0.25974314076971378</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>5.3403482302862293E-3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132">
         <v>22</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>0.26081956197599809</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>5.290572024001905E-3</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133">
         <v>23</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>0.26198592690076566</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>5.177462099234309E-3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134">
         <v>24</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>0.26324163483077345</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>5.001727169226533E-3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135">
         <v>25</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>0.26458608505277836</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>4.7640739472216143E-3</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136">
         <v>26</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>0.26601867685353736</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>4.4652141464626149E-3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137">
         <v>27</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>0.26753880951980741</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>4.1058624801925681E-3</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="A138">
         <v>28</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>0.26914588233834541</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>3.6867346616545893E-3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="A139">
         <v>29</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>0.27083929459590833</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>3.208551404091653E-3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140">
         <v>30</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>0.27261844557925313</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>2.6720344207468716E-3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="A141">
         <v>31</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>0.27448273457513667</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>2.0779084248633284E-3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142">
         <v>32</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>0.27643156087031595</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>1.4269021296840489E-3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="A143">
         <v>33</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>0.27846432375154795</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>7.1974424845205887E-4</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="A144">
         <v>34</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>0.28058042250558957</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>-4.2829505589592198E-5</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="A145">
         <v>35</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>0.28277925641919771</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>-8.60085419197687E-4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="A146">
         <v>36</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>0.2850602247791294</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>-1.7312837791294E-3</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="A147">
         <v>37</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>0.28742272687214149</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>-2.655681872141491E-3</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="A148">
         <v>38</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>0.28986616198499099</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>-3.6325369849909972E-3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="A149">
         <v>39</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>0.29238992940443481</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>-4.6611004044347926E-3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150">
         <v>40</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>0.29499342841722992</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>-5.7406214172299186E-3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="A151">
         <v>41</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>0.29767605831013322</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>-6.8703493101331947E-3</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="A152">
         <v>42</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>0.30043721836990167</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>-8.0495253699016667E-3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="A153">
         <v>43</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>0.30327630788329218</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>-9.2773928832921571E-3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="A154">
         <v>44</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>0.30619272613706172</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>-1.0553188137061742E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="A155">
         <v>45</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>0.3091858724179673</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>-1.1876147417967275E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="A156">
         <v>46</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>0.31225514601276583</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>-1.3245503012765836E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="A157">
         <v>47</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>0.31539994620821415</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>-1.4660484208214142E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158">
         <v>48</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>0.3186196722910693</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>-1.6120316291069303E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="A159">
         <v>49</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>0.32191372354808823</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>-1.7624223548088236E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="A160">
         <v>50</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>0.32528149926602773</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>-1.9171427266027719E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="A161">
         <v>51</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>0.32872239873164494</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>-2.076114173164495E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="A162">
         <v>52</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>0.3322358212316967</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>9.693458768303298E-3</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="A163">
         <v>53</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>0.33582116605293999</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>9.2802339470600126E-3</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="A164">
         <v>54</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>0.33947783248213176</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>8.8647895178682323E-3</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="A165">
         <v>55</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>0.34320521980602886</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>8.4478411939711284E-3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166">
         <v>56</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>0.34700272731138831</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>8.0301066886117045E-3</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="A167">
         <v>57</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>0.35086975428496703</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>7.6123057150329632E-3</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="A168">
         <v>58</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>0.35480570001352196</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>7.1951619864780159E-3</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="A169">
         <v>59</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>0.35880996378381008</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>6.7794032161899165E-3</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170">
         <v>60</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>0.36288194488258829</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>6.3657581174116906E-3</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="A171">
         <v>61</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>0.36702104259661356</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>5.9549584033864456E-3</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="A172">
         <v>62</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>0.37122665621264278</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>5.5477417873572299E-3</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="A173">
         <v>63</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>0.37549818501743293</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>5.1448459825670922E-3</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+      <c r="A174">
         <v>64</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>0.37983502829774102</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>4.7470117022589964E-3</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+      <c r="A175">
         <v>65</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>0.38423658534032384</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>4.3549836596761815E-3</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+      <c r="A176">
         <v>66</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>0.38870225543193848</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176">
         <v>3.9695105680614962E-3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+      <c r="A177">
         <v>67</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>0.39323143785934173</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177">
         <v>3.5913421406582602E-3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+      <c r="A178">
         <v>68</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>0.39782353190929065</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178">
         <v>3.2212330907093745E-3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+      <c r="A179">
         <v>69</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>0.40247793686854216</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179">
         <v>2.8599401314578499E-3</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+      <c r="A180">
         <v>70</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>0.40719405202385311</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <v>2.5082219761468627E-3</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+      <c r="A181">
         <v>71</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>0.41197127666198069</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <v>2.1668433380193086E-3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+      <c r="A182">
         <v>72</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>0.41680901006968152</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>1.8365709303184707E-3</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+      <c r="A183">
         <v>73</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>0.42170665153371273</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>1.5181724662872709E-3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+      <c r="A184">
         <v>74</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>0.42666360034083128</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184">
         <v>1.2124206591687114E-3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+      <c r="A185">
         <v>75</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>0.43167925577779392</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185">
         <v>9.2009322220609757E-4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+      <c r="A186">
         <v>76</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>0.43675301713135789</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>6.4196786864212374E-4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+      <c r="A187">
         <v>77</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>0.44188428368827981</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187">
         <v>3.788273117201757E-4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+      <c r="A188">
         <v>78</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>0.44707245473531687</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188">
         <v>1.3145626468313854E-4</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+      <c r="A189">
         <v>79</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>0.45231692955922598</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189">
         <v>-9.9355559225966505E-5</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+      <c r="A190">
         <v>80</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>0.45761710744676398</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>-3.1281744676397993E-4</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+      <c r="A191">
         <v>81</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>0.46297238768468785</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>-5.0813168468782921E-4</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+      <c r="A192">
         <v>82</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>0.46838216955975459</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192">
         <v>-6.8450155975458005E-4</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+      <c r="A193">
         <v>83</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>0.47384585235872084</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193">
         <v>-8.4112335872082999E-4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+      <c r="A194">
         <v>84</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>0.47936283536834401</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194">
         <v>-9.7719336834400927E-4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+      <c r="A195">
         <v>85</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <v>0.48493251787538083</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195">
         <v>-1.0919018753808296E-3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+      <c r="A196">
         <v>86</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <v>0.4905542991665881</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196">
         <v>-1.1844371665881148E-3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+      <c r="A197">
         <v>87</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <v>0.49622757852872301</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197">
         <v>-1.2539825287229966E-3</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+      <c r="A198">
         <v>88</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <v>0.50195175524854241</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198">
         <v>-1.2997202485424131E-3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+      <c r="A199">
         <v>89</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <v>0.50772622861280314</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199">
         <v>-1.3208266128031942E-3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+      <c r="A200">
         <v>90</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <v>0.51355039790826229</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200">
         <v>-1.3164769082623096E-3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+      <c r="A201">
         <v>91</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <v>0.5194236624216767</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201">
         <v>-1.2858404216766761E-3</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+      <c r="A202">
         <v>92</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202">
         <v>0.52534542143980334</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202">
         <v>-1.2280834398032958E-3</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+      <c r="A203">
         <v>93</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203">
         <v>0.53131507424939917</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203">
         <v>-1.1423712493991989E-3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+      <c r="A204">
         <v>94</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <v>0.53733202013722103</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204">
         <v>-1.0278621372210583E-3</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+      <c r="A205">
         <v>95</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <v>0.5433956583900259</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>-8.8371239002593693E-4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="A206">
         <v>96</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <v>0.54950538829457107</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206">
         <v>-7.090752945710932E-4</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+      <c r="A207">
         <v>97</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <v>0.55566060913761295</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>-5.030991376129279E-4</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+      <c r="A208">
         <v>98</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208">
         <v>0.56186072020590871</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208">
         <v>-2.6492920590870384E-4</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+      <c r="A209">
         <v>99</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <v>0.56810512078621522</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209">
         <v>6.2932137847582226E-6</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+      <c r="A210">
         <v>100</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <v>0.57439321016528977</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210">
         <v>3.1142983471021957E-4</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <v>101</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>0.58072438762988887</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="2">
         <v>6.5134837011115998E-4</v>
       </c>
     </row>
